--- a/data_dictionary/EAVEII_data_dictionary.xlsx
+++ b/data_dictionary/EAVEII_data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/rmulholl_ed_ac_uk/Documents/BREATHE/EAVE II/Data Dictionary/EAVE_II_data_dictionary/EAVE-II-data-dictionary/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{AE13D6CA-DE66-412B-A5F7-9DCD7B519441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B8B44C4-687C-4D10-A983-A157A3D0F202}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{AE13D6CA-DE66-412B-A5F7-9DCD7B519441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8171FA4F-AE48-4674-8773-E0CB4BD513D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{38241971-5B5E-4737-81C9-EB32DF57B3E7}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{38241971-5B5E-4737-81C9-EB32DF57B3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Household lookup" sheetId="7" r:id="rId7"/>
     <sheet name="QCOVID" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">QCOVID!$A$1:$H$42</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="352">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +79,6 @@
     <t>Randomly assigned study index number</t>
   </si>
   <si>
-    <t>Character</t>
-  </si>
-  <si>
     <t>EAVE(7)digits (e.g. EAVE1234567)</t>
   </si>
   <si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Age in years</t>
-  </si>
-  <si>
-    <t>Integer</t>
   </si>
   <si>
     <t>Min= 0, Max= 120</t>
@@ -199,9 +196,6 @@
     <t>LabSpecimenNo</t>
   </si>
   <si>
-    <t>SpecimenDate</t>
-  </si>
-  <si>
     <t>OriginalOrganism</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>SpecimenOrigin</t>
   </si>
   <si>
-    <t>EcossDateReceived</t>
-  </si>
-  <si>
     <t>SubLab</t>
   </si>
   <si>
@@ -235,12 +226,6 @@
     <t>CAREHOMEID</t>
   </si>
   <si>
-    <t>NRS.Reg.Date</t>
-  </si>
-  <si>
-    <t>NRS.Date.Death</t>
-  </si>
-  <si>
     <t>death28</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>Origin of specimen</t>
   </si>
   <si>
-    <t>Date of laboratory result received by ECOSS?</t>
-  </si>
-  <si>
     <t>Location and name of laboratory?</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>National Records of Scotland death date</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>8 digits (e.g. 12345678)</t>
   </si>
   <si>
@@ -427,9 +406,6 @@
     <t>Number of laboratory specimen</t>
   </si>
   <si>
-    <t>Date of specimen</t>
-  </si>
-  <si>
     <t>Original organism</t>
   </si>
   <si>
@@ -439,9 +415,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>SPECIMENDATE</t>
-  </si>
-  <si>
     <t>CURRENT_POSTCODDE</t>
   </si>
   <si>
@@ -451,9 +424,6 @@
     <t>GP_PRAC_NO</t>
   </si>
   <si>
-    <t>DATE_OF_DEATH</t>
-  </si>
-  <si>
     <t>covid_ucod</t>
   </si>
   <si>
@@ -538,12 +508,6 @@
     <t>any +ve value (if testedbefore admission, value changed to 0)</t>
   </si>
   <si>
-    <t>Date_address_changed.x</t>
-  </si>
-  <si>
-    <t>Date_address_changed.y</t>
-  </si>
-  <si>
     <t>March_hid</t>
   </si>
   <si>
@@ -574,21 +538,12 @@
     <t xml:space="preserve">N persons in household (March) </t>
   </si>
   <si>
-    <t>Date moved out of scotland (from March CHILI extract)</t>
-  </si>
-  <si>
     <t>Household ID number (valid for september extract)</t>
   </si>
   <si>
     <t>N persons in household  (September)</t>
   </si>
   <si>
-    <t>Date moved out of scotland (from September CHILI extract)</t>
-  </si>
-  <si>
-    <t>Date as number yyyymmdd</t>
-  </si>
-  <si>
     <t>CHILI</t>
   </si>
   <si>
@@ -832,9 +787,6 @@
     <t>What is your postcode?</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -955,9 +907,6 @@
     <t>Data_file</t>
   </si>
   <si>
-    <t>SIMD Quintiles</t>
-  </si>
-  <si>
     <t>Scottish Index of Multiple Deprivation (SIMD) Quintile (2020)</t>
   </si>
   <si>
@@ -1015,9 +964,6 @@
     <t>Death within 28 days</t>
   </si>
   <si>
-    <t>Date of specimen collection?</t>
-  </si>
-  <si>
     <t>Source ID</t>
   </si>
   <si>
@@ -1027,9 +973,6 @@
     <t>GP Practice Number</t>
   </si>
   <si>
-    <t>Date of death</t>
-  </si>
-  <si>
     <t>COVID</t>
   </si>
   <si>
@@ -1064,13 +1007,118 @@
   </si>
   <si>
     <t>Individuals are included in a cluster based on specific combinations of demographics, clinical codes. DMD codes and date filters.</t>
+  </si>
+  <si>
+    <t>EAVEII_dd_gp_clusters.xlsx</t>
+  </si>
+  <si>
+    <t>Address change date (March)</t>
+  </si>
+  <si>
+    <t>Address change data (September)</t>
+  </si>
+  <si>
+    <t>Household ID (March)</t>
+  </si>
+  <si>
+    <t>Number of ID's in household (March)</t>
+  </si>
+  <si>
+    <t>Move or transfer date (March)</t>
+  </si>
+  <si>
+    <t>Household ID (September)</t>
+  </si>
+  <si>
+    <t>Number of ID's in household (September)</t>
+  </si>
+  <si>
+    <t>Move or transfer date (September)</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Specimendate</t>
+  </si>
+  <si>
+    <t>date of specimen</t>
+  </si>
+  <si>
+    <t>date of specimen collection?</t>
+  </si>
+  <si>
+    <t>EcossdateReceived</t>
+  </si>
+  <si>
+    <t>date of laboratory result received by ECOSS?</t>
+  </si>
+  <si>
+    <t>NRS.Reg.date</t>
+  </si>
+  <si>
+    <t>NRS.date.Death</t>
+  </si>
+  <si>
+    <t>SPECIMENdate</t>
+  </si>
+  <si>
+    <t>date_OF_DEATH</t>
+  </si>
+  <si>
+    <t>date of death</t>
+  </si>
+  <si>
+    <t>date_address_changed.x</t>
+  </si>
+  <si>
+    <t>date as number yyyymmdd</t>
+  </si>
+  <si>
+    <t>date_address_changed.y</t>
+  </si>
+  <si>
+    <t>date moved out of scotland (from March CHILI extract)</t>
+  </si>
+  <si>
+    <t>date moved out of scotland (from September CHILI extract)</t>
+  </si>
+  <si>
+    <t>SIMD Quintile</t>
+  </si>
+  <si>
+    <t>Diagnosis (GP cluster)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Health Board code 2019</t>
+  </si>
+  <si>
+    <t>Health Board code 2018</t>
+  </si>
+  <si>
+    <t>Health Board code 2014</t>
+  </si>
+  <si>
+    <t>Health Board name 2019</t>
+  </si>
+  <si>
+    <t>Sex (number)</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1147,10 +1203,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1175,8 +1232,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1472,93 +1531,93 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1631,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1619,147 +1678,147 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD75A786-A60A-45C5-BDB0-7A9E27993732}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1817,29 +1876,38 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>334</v>
+        <v>314</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>326</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>317</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://github.com/EAVE-II/EAVE-II-data-dictionary/blob/main/data_dictionary/supplementary/EAVEII_dd_gp_clusters.xlsx" xr:uid="{DF4697D5-C92D-46A0-A2D0-84946C1A17A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1847,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7B8464-7A11-4BB6-8E7F-A2B0F91C625E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1893,365 +1961,365 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>328</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2264,14 +2332,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABCE90-916C-4DB4-8740-25A9108485A8}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="4"/>
     <col min="5" max="5" width="22.33203125" style="4" customWidth="1"/>
@@ -2301,13 +2369,16 @@
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E2" s="5">
         <v>2019</v>
@@ -2315,114 +2386,138 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2530,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2476,271 +2571,271 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2753,12 +2848,13 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2791,162 +2887,189 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" t="s">
         <v>162</v>
       </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>178</v>
-      </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
         <v>164</v>
-      </c>
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2958,11 +3081,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497F9B6-838A-4995-AB1F-759759587288}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -2992,744 +3118,745 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E24" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E26" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H30" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H32" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E37" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="H41" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H42" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H42" xr:uid="{829E4694-0C62-4072-B94C-FC59BF6DA652}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_dictionary/EAVEII_data_dictionary.xlsx
+++ b/data_dictionary/EAVEII_data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/rmulholl_ed_ac_uk/Documents/BREATHE/EAVE II/Data Dictionary/EAVE_II_data_dictionary/EAVE-II-data-dictionary/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{AE13D6CA-DE66-412B-A5F7-9DCD7B519441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4948C589-43B4-43AF-B51F-2B8CF496A127}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="8_{AE13D6CA-DE66-412B-A5F7-9DCD7B519441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAE37E5E-9E44-4254-8497-7249549F6592}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="525" windowWidth="19425" windowHeight="10545" xr2:uid="{38241971-5B5E-4737-81C9-EB32DF57B3E7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{38241971-5B5E-4737-81C9-EB32DF57B3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="381">
   <si>
     <t>Name</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Values</t>
-  </si>
-  <si>
-    <t>Data_Source</t>
-  </si>
-  <si>
-    <t>Dataset_name</t>
   </si>
   <si>
     <t>Comments</t>
@@ -889,9 +883,6 @@
     <t>User interface and batch processor only.  When using the SDK, get the corresponding Townsend score from the Townsend deprivation database.  See example code for details.</t>
   </si>
   <si>
-    <t>Data_file</t>
-  </si>
-  <si>
     <t>Scottish Index of Multiple Deprivation (SIMD) Quintile (2020)</t>
   </si>
   <si>
@@ -901,9 +892,6 @@
     <t>QCOVID</t>
   </si>
   <si>
-    <t>Update_frequency</t>
-  </si>
-  <si>
     <t>Bi-monthly to 3 months</t>
   </si>
   <si>
@@ -1087,12 +1075,6 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Data_source_name</t>
-  </si>
-  <si>
-    <t>Data_sources</t>
-  </si>
-  <si>
     <t>Baseline GP extract on all patients and their key demographics</t>
   </si>
   <si>
@@ -1105,12 +1087,6 @@
     <t>Lookup of NHS Scotland Healthboards and the total population</t>
   </si>
   <si>
-    <t>Data_source</t>
-  </si>
-  <si>
-    <t>Data_souce</t>
-  </si>
-  <si>
     <t>Health board lookup</t>
   </si>
   <si>
@@ -1208,6 +1184,21 @@
   </si>
   <si>
     <t>Derived</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>Data file</t>
+  </si>
+  <si>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t>Update frequency</t>
+  </si>
+  <si>
+    <t>Dataset name</t>
   </si>
 </sst>
 </file>
@@ -1616,9 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A38C32A-5E9F-4246-A451-86235DCA479A}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1633,204 +1622,204 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>277</v>
+        <v>377</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>281</v>
+        <v>379</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1833,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1875,39 +1864,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1915,22 +1904,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1938,22 +1927,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1961,127 +1950,127 @@
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2091,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD75A786-A60A-45C5-BDB0-7A9E27993732}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2097,7 @@
     <col min="9" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2122,83 +2111,86 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
@@ -2215,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7B8464-7A11-4BB6-8E7F-A2B0F91C625E}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2245,473 +2237,473 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2724,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABCE90-916C-4DB4-8740-25A9108485A8}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2754,36 +2746,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F2" s="5">
         <v>2019</v>
@@ -2793,176 +2785,176 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2974,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10005EB8-7C17-415A-831D-DCA049AC9C5B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3000,125 +2992,125 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C7" s="16"/>
       <c r="G7" s="5"/>
@@ -3126,199 +3118,199 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3328,20 +3320,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE98D1A-96EE-4C22-B038-E76A99DF5E1A}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="23.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3355,227 +3347,221 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
         <v>329</v>
       </c>
-      <c r="B3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" t="s">
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3587,14 +3573,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497F9B6-838A-4995-AB1F-759759587288}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="6" max="6" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3612,774 +3598,774 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E28" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" t="s">
         <v>253</v>
-      </c>
-      <c r="E32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" t="s">
         <v>256</v>
-      </c>
-      <c r="F33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E35" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" t="s">
         <v>271</v>
-      </c>
-      <c r="F41" t="s">
-        <v>272</v>
-      </c>
-      <c r="I41" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I42" t="s">
         <v>274</v>
-      </c>
-      <c r="E42" t="s">
-        <v>275</v>
-      </c>
-      <c r="I42" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary/EAVEII_data_dictionary.xlsx
+++ b/data_dictionary/EAVEII_data_dictionary.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/rmulholl_ed_ac_uk/Documents/BREATHE/EAVE II/Data Dictionary/EAVE_II_data_dictionary/EAVE-II-data-dictionary/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="8_{AE13D6CA-DE66-412B-A5F7-9DCD7B519441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8ABFC4C8-5565-481D-936D-E2AD4649C164}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE38BD1-B32E-407D-83DD-C871228D0D2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38241971-5B5E-4737-81C9-EB32DF57B3E7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
-    <sheet name="GP Data Demographics" sheetId="1" r:id="rId2"/>
-    <sheet name="GP Diagnostics" sheetId="2" r:id="rId3"/>
-    <sheet name="ECOSS" sheetId="3" r:id="rId4"/>
-    <sheet name="Health Board Lookup" sheetId="5" r:id="rId5"/>
-    <sheet name="Severe cases" sheetId="6" r:id="rId6"/>
-    <sheet name="Household identifier" sheetId="7" r:id="rId7"/>
-    <sheet name="QCOVID" sheetId="8" r:id="rId8"/>
+    <sheet name="Template" sheetId="11" r:id="rId2"/>
+    <sheet name="GP Data Demographics" sheetId="1" r:id="rId3"/>
+    <sheet name="GP Diagnostics" sheetId="2" r:id="rId4"/>
+    <sheet name="ECOSS" sheetId="3" r:id="rId5"/>
+    <sheet name="Health Board Lookup" sheetId="5" r:id="rId6"/>
+    <sheet name="Severe cases" sheetId="6" r:id="rId7"/>
+    <sheet name="Household identifier" sheetId="7" r:id="rId8"/>
+    <sheet name="QCOVID deduplicated" sheetId="8" r:id="rId9"/>
+    <sheet name="Sgene linked" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">QCOVID!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'QCOVID deduplicated'!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,8 +45,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rachel</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{ACB58994-C278-4AAB-9347-C13515845058}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy template and replace this row with values</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="476">
   <si>
     <t>Name</t>
   </si>
@@ -106,16 +132,10 @@
     <t>simd2020_sc_quintile</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
     <t>ur6_2016</t>
   </si>
   <si>
     <t>Urban/Rural classification</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
   </si>
   <si>
     <t>ur6_2016_name</t>
@@ -190,15 +210,6 @@
     <t>SourceLab</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>KEYEMPLOYER</t>
-  </si>
-  <si>
-    <t>KEYWORKERTYPE</t>
-  </si>
-  <si>
     <t>CAREHOMEID</t>
   </si>
   <si>
@@ -223,18 +234,6 @@
     <t>Origin of specimen</t>
   </si>
   <si>
-    <t>Location and name of laboratory?</t>
-  </si>
-  <si>
-    <t>category?</t>
-  </si>
-  <si>
-    <t>Healthcare provider?</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Care home identifier </t>
   </si>
   <si>
@@ -280,21 +279,12 @@
     <t>ABD:ALB, ABD:GHB, ABD:ROY, AYR:ARL, BOR:ARL, DEE:UNI, DMF:ROY, DUN:ARL, EDI:ROY, EDI:RVL, EDI:SCH, EDI:UNI, EDI:WGH, FIF:ARL, GIL:BAN, GLA:GAR, GLA:GJH, GLA:NUF, GLA:REV, GLA:ROY, GLA:SCH, GLA:SCS, GLA:SGH, GLA:STR, GLA:UNI, GLA:VIC, GLA:WES, GLA:CLY, INV:RAI, LAN:ALL, LAN:HAR, LAN:LAW, LAN:MON, NHS:UKL, OBA:LAB, ORK:BAL, PAI:RAH, STI:ROY, WES:LES, WLO:BAN</t>
   </si>
   <si>
-    <t>e.g. Angus Council</t>
-  </si>
-  <si>
-    <t>citizen, DARA, SELF, NA</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>ECOSS</t>
   </si>
   <si>
-    <t>ECOSS_cohort.rds</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -382,18 +372,9 @@
     <t>Severe cases</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>CURRENT_POSTCODDE</t>
-  </si>
-  <si>
     <t>is.case</t>
   </si>
   <si>
-    <t>GP_PRAC_NO</t>
-  </si>
-  <si>
     <t>covid_ucod</t>
   </si>
   <si>
@@ -445,9 +426,6 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>in RAPID dataset?</t>
-  </si>
-  <si>
     <t>any +ve value</t>
   </si>
   <si>
@@ -490,93 +468,6 @@
     <t>rowid</t>
   </si>
   <si>
-    <t>b2_82</t>
-  </si>
-  <si>
-    <t>b2_leukolaba</t>
-  </si>
-  <si>
-    <t>b2_prednisolone</t>
-  </si>
-  <si>
-    <t>b_AF</t>
-  </si>
-  <si>
-    <t>b_CCF</t>
-  </si>
-  <si>
-    <t>b_asthma</t>
-  </si>
-  <si>
-    <t>b_bloodcancer</t>
-  </si>
-  <si>
-    <t>b_cerebralpalsy</t>
-  </si>
-  <si>
-    <t>b_chd</t>
-  </si>
-  <si>
-    <t>b_cirrhosis</t>
-  </si>
-  <si>
-    <t>b_congenheart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_copd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_dementia </t>
-  </si>
-  <si>
-    <t>b_epilepsy</t>
-  </si>
-  <si>
-    <t>b_fracture4</t>
-  </si>
-  <si>
-    <t>b_neurorare</t>
-  </si>
-  <si>
-    <t>b_parkinsons</t>
-  </si>
-  <si>
-    <t>b_pulmhyper</t>
-  </si>
-  <si>
-    <t>b_pulmrare</t>
-  </si>
-  <si>
-    <t>b_pvd</t>
-  </si>
-  <si>
-    <t>b_ra_sle</t>
-  </si>
-  <si>
-    <t>b_respcancer</t>
-  </si>
-  <si>
-    <t>b_semi</t>
-  </si>
-  <si>
-    <t>b_sicklecelldisease</t>
-  </si>
-  <si>
-    <t>b_stroke</t>
-  </si>
-  <si>
-    <t>diabetes_cat</t>
-  </si>
-  <si>
-    <t>b_vte</t>
-  </si>
-  <si>
-    <t>bmi</t>
-  </si>
-  <si>
-    <t>chemocat</t>
-  </si>
-  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -679,18 +570,12 @@
     <t>Have you had a stroke or TIA?</t>
   </si>
   <si>
-    <t>Do ypou have diabetes?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Have you had a thrombosis or pulmonary embolus? </t>
   </si>
   <si>
     <t xml:space="preserve">Body Mass Index </t>
   </si>
   <si>
-    <t>Have you had chemotherapy in the last 12 months?</t>
-  </si>
-  <si>
     <t>What is your ethnic group?</t>
   </si>
   <si>
@@ -748,27 +633,9 @@
     <t>Some patients with diabetes will have codes for type 1 and type2 both recorded in their medical record. It is likely that the most recently recorded code is the most reliable. Therefore, to categorise patients into type 1 or type 2, then identify the latest code recorded in the medical record. If it is Type 1, then code the patient as type 1. If it is type 2, then code the patient as Type 2. If a patient has two codes (one for type 1 and one for type2) recorded on the same day and that is the latest recorded entry, then assume the patient is Type2. The final categorisation should ensure that patients are EITHER Type 1 or Type 2 or neither.</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double  </t>
-  </si>
-  <si>
     <t>The most recently recorded patient BMI within the last 5 years.</t>
   </si>
   <si>
-    <t>0:none; 1: Group A; 2: Group B; 3: Group C</t>
-  </si>
-  <si>
-    <t>SACT</t>
-  </si>
-  <si>
-    <t>Chemotherapy prescribed in preceding 12 months as recorded on the Systemic Anti Cancer Treatment (SACT) data. Chemotherapy classified into 3 cateogries (sheet 3)</t>
-  </si>
-  <si>
-    <t>0 -&gt; 17</t>
-  </si>
-  <si>
     <t>See separate table in this spreadsheet for the values needed for the batch processor.  For the SDK, these values are represented as text within the Ethnicity type (sheet 2)</t>
   </si>
   <si>
@@ -787,9 +654,6 @@
     <t>HES (OPCS)</t>
   </si>
   <si>
-    <t>Radiotherapy Data Set (RTDS)  OR HES (OPCS)</t>
-  </si>
-  <si>
     <t>coded as having radiotherapy in the preceding 6 months on either HES or RTDS</t>
   </si>
   <si>
@@ -799,9 +663,6 @@
     <t>coded as having solid organ transplant ever on HES</t>
   </si>
   <si>
-    <t>0-&gt;5</t>
-  </si>
-  <si>
     <t>double (nullable)</t>
   </si>
   <si>
@@ -811,9 +672,6 @@
     <t>If given for the batch processor, this takes priority over any postcode entered</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>string (nullable)</t>
   </si>
   <si>
@@ -826,9 +684,6 @@
     <t>PHS lookup file</t>
   </si>
   <si>
-    <t>QCOVID</t>
-  </si>
-  <si>
     <t>Bi-monthly to 3 months</t>
   </si>
   <si>
@@ -844,12 +699,6 @@
     <t>Source lab</t>
   </si>
   <si>
-    <t>Key employer</t>
-  </si>
-  <si>
-    <t>Key employer type</t>
-  </si>
-  <si>
     <t>Care home ID</t>
   </si>
   <si>
@@ -859,30 +708,15 @@
     <t>NRS death date</t>
   </si>
   <si>
-    <t>Death within 28 days of ?</t>
-  </si>
-  <si>
     <t>Death within 28 days</t>
   </si>
   <si>
-    <t>Source ID</t>
-  </si>
-  <si>
     <t>Specimen date</t>
   </si>
   <si>
-    <t>GP Practice Number</t>
-  </si>
-  <si>
-    <t>COVID</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
-    <t>In hospital</t>
-  </si>
-  <si>
     <t>ICU admission</t>
   </si>
   <si>
@@ -907,9 +741,6 @@
     <t>Medical diagnosis, clinical indicators and other health-related characteristics</t>
   </si>
   <si>
-    <t>EAVEII_dd_gp_clusters.xlsx</t>
-  </si>
-  <si>
     <t>Address change date (March)</t>
   </si>
   <si>
@@ -946,15 +777,9 @@
     <t>date of specimen</t>
   </si>
   <si>
-    <t>date of specimen collection?</t>
-  </si>
-  <si>
     <t>EcossdateReceived</t>
   </si>
   <si>
-    <t>date of laboratory result received by ECOSS?</t>
-  </si>
-  <si>
     <t>NRS.Reg.date</t>
   </si>
   <si>
@@ -964,18 +789,9 @@
     <t>SPECIMENdate</t>
   </si>
   <si>
-    <t>date_OF_DEATH</t>
-  </si>
-  <si>
-    <t>date_address_changed.x</t>
-  </si>
-  <si>
     <t>date as number yyyymmdd</t>
   </si>
   <si>
-    <t>date_address_changed.y</t>
-  </si>
-  <si>
     <t>SIMD Quintile</t>
   </si>
   <si>
@@ -1018,21 +834,12 @@
     <t>Health board lookup</t>
   </si>
   <si>
-    <t>case-control files</t>
-  </si>
-  <si>
-    <t>case-control files (from ? ECOSS, NRS?</t>
-  </si>
-  <si>
     <t>GP data or Patient demographic service</t>
   </si>
   <si>
     <t>GP data or HES (OPCS)</t>
   </si>
   <si>
-    <t>GP data and HES (OPCS)</t>
-  </si>
-  <si>
     <t>cases_severe_dates.rds</t>
   </si>
   <si>
@@ -1048,15 +855,6 @@
     <t>EAVE II severe cases and outcomes</t>
   </si>
   <si>
-    <t>GP data, ECOSS, ???</t>
-  </si>
-  <si>
-    <t>GP data, ECOSS, HES ...</t>
-  </si>
-  <si>
-    <t>NAME?</t>
-  </si>
-  <si>
     <t>End points</t>
   </si>
   <si>
@@ -1075,9 +873,6 @@
     <t>CR_Cohort_Weights.rds</t>
   </si>
   <si>
-    <t>SMR01 Comorbidities</t>
-  </si>
-  <si>
     <t>Comorbidities from the SMR01 dataset</t>
   </si>
   <si>
@@ -1135,12 +930,6 @@
     <t>Names of 2019 NHS Health Boards</t>
   </si>
   <si>
-    <t>Postcode of ?? (patient?)</t>
-  </si>
-  <si>
-    <t>GP Practice Number assigned to every GP (is this a standard thing?)</t>
-  </si>
-  <si>
     <t>Date of death</t>
   </si>
   <si>
@@ -1159,36 +948,12 @@
     <t>Number of days from test to admission to ICU</t>
   </si>
   <si>
-    <t>Indicator of whether patient has died within 28 days of ? Test? Hospitalisation?</t>
-  </si>
-  <si>
     <t>Date admitted to hospital</t>
   </si>
   <si>
     <t>Number of days from test to admission to hospital</t>
   </si>
   <si>
-    <t>Indicator whether patient was admitted to hospital at time of test</t>
-  </si>
-  <si>
-    <t>Source of ID (CHI)</t>
-  </si>
-  <si>
-    <t>EAVE_DEMOG, ECOSS</t>
-  </si>
-  <si>
-    <t>GP data, ECOSS</t>
-  </si>
-  <si>
-    <t>Date of test?</t>
-  </si>
-  <si>
-    <t>ECOSS?</t>
-  </si>
-  <si>
-    <t>NRS Deaths?</t>
-  </si>
-  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -1216,9 +981,6 @@
     <t>Date when resident moved out of scotland (September update)</t>
   </si>
   <si>
-    <t>Structure of IDs?</t>
-  </si>
-  <si>
     <t>any +ve whole number</t>
   </si>
   <si>
@@ -1306,9 +1068,6 @@
     <t>A thrombosis or pulmonary embolus indicator</t>
   </si>
   <si>
-    <t>Chemotherapy in the last 12 months indicator</t>
-  </si>
-  <si>
     <t>Radiotherapy in the last 6 months indicator</t>
   </si>
   <si>
@@ -1336,14 +1095,440 @@
     <t>Solid organ transplant indicator</t>
   </si>
   <si>
-    <t>Town associated with postcode</t>
+    <t>date of specimen collection</t>
+  </si>
+  <si>
+    <t>date record  received by ECOSS</t>
+  </si>
+  <si>
+    <t>Death within 28 days of positive covid test</t>
+  </si>
+  <si>
+    <t>Date of test</t>
+  </si>
+  <si>
+    <t>Postcode of residence</t>
+  </si>
+  <si>
+    <t>flag to indicate person in RAPID dataset</t>
+  </si>
+  <si>
+    <t>rapid flag</t>
+  </si>
+  <si>
+    <t>is a covid case</t>
+  </si>
+  <si>
+    <t>Flag to indicate person is a covid case (+ve test and/or covid on death certificate)</t>
+  </si>
+  <si>
+    <t>COVID is underlying cause of death (COD)</t>
+  </si>
+  <si>
+    <t>Covid listed as any cause of death</t>
+  </si>
+  <si>
+    <t>Indicator or whether covid is listed as any COD on death certificate</t>
+  </si>
+  <si>
+    <t>Indicator or whether covid is underlying or primary COD on death certificate</t>
+  </si>
+  <si>
+    <t>Indicator of whether patient has died within 28 days of +ve covid Test</t>
+  </si>
+  <si>
+    <t>In hospital when test done</t>
+  </si>
+  <si>
+    <t>Indicator whether patient was already admitted to hospital at time of test</t>
+  </si>
+  <si>
+    <t>SICSAG</t>
+  </si>
+  <si>
+    <t>Q_RX_IMMUNO</t>
+  </si>
+  <si>
+    <t>Q_RX_LABA</t>
+  </si>
+  <si>
+    <t>Q_RX_PRED</t>
+  </si>
+  <si>
+    <t>Q_DIAG_AF</t>
+  </si>
+  <si>
+    <t>Q_DIAG_CCF</t>
+  </si>
+  <si>
+    <t>Q_DIAG_asthma</t>
+  </si>
+  <si>
+    <t>Q_DIAG_cerebralpalsy</t>
+  </si>
+  <si>
+    <t>Q_DIAG_chd</t>
+  </si>
+  <si>
+    <t>Q_DIAG_cirrhosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_DIAG_dementia </t>
+  </si>
+  <si>
+    <t>Q_DIAG_epilepsy</t>
+  </si>
+  <si>
+    <t>Q_DIAG_neurorare</t>
+  </si>
+  <si>
+    <t>Q_DIAG_parkinsons</t>
+  </si>
+  <si>
+    <t>Q_DIAG_pvd</t>
+  </si>
+  <si>
+    <t>Q_DIAG_ra_sle</t>
+  </si>
+  <si>
+    <t>Q_DIAG_respcancer</t>
+  </si>
+  <si>
+    <t>Q_DIAG_stroke</t>
+  </si>
+  <si>
+    <t>Q_DIAG_blood_cancer</t>
+  </si>
+  <si>
+    <t>Q_DIAG_COPD</t>
+  </si>
+  <si>
+    <t>Q_DIAG_Congen_HD</t>
+  </si>
+  <si>
+    <t>Q_DIAG_DIABETES_1</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes</t>
+  </si>
+  <si>
+    <t>type 2 diabetes</t>
+  </si>
+  <si>
+    <t>Q_DIAG_DIABETES_2</t>
+  </si>
+  <si>
+    <t>Q_DIAG_sickle_cell_</t>
+  </si>
+  <si>
+    <t>Q_DIAG_SEV_MENT_ILL</t>
+  </si>
+  <si>
+    <t>Q_DIAG_pulm_rare</t>
+  </si>
+  <si>
+    <t>Q_DIAG_pulm_hyper</t>
+  </si>
+  <si>
+    <t>Q_DIAG_fracture</t>
+  </si>
+  <si>
+    <t>Q_DIAG_VTE</t>
+  </si>
+  <si>
+    <t>age_year</t>
+  </si>
+  <si>
+    <t>SpecimenDate</t>
+  </si>
+  <si>
+    <t>NRS.Date.Death</t>
+  </si>
+  <si>
+    <t>simd2020</t>
+  </si>
+  <si>
+    <t>admission_date</t>
+  </si>
+  <si>
+    <t>discharge_date</t>
+  </si>
+  <si>
+    <t>covid_adm</t>
+  </si>
+  <si>
+    <t>time_test_covid_adm</t>
+  </si>
+  <si>
+    <t>covid_dth</t>
+  </si>
+  <si>
+    <t>time_test_covid_dth</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>true_s_gene_dropout</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>NRS deaths</t>
+  </si>
+  <si>
+    <t>??ECOSS - need to check with Chris</t>
+  </si>
+  <si>
+    <t>Date sample taken</t>
+  </si>
+  <si>
+    <t>location sample processed</t>
+  </si>
+  <si>
+    <t>result of covid test</t>
+  </si>
+  <si>
+    <t>Died within 28 days of  +ve test</t>
+  </si>
+  <si>
+    <t>Day admitted to hospital</t>
+  </si>
+  <si>
+    <t>Day discharged from hospital</t>
+  </si>
+  <si>
+    <t>Time (days) from +ve test to admission</t>
+  </si>
+  <si>
+    <t>Time (days) from +ve test to dearh</t>
+  </si>
+  <si>
+    <t>Quintile of scottish index of multiple deprivation (from postcode of residence)</t>
+  </si>
+  <si>
+    <t>Whether S gene positive, S gene negative or weak Sgene positive  on PCR test.</t>
+  </si>
+  <si>
+    <t>M/F</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>1 (only +ve tests in this file)</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Positive S Gene/True S Gene Dropout/Weak Positive/Unknown</t>
+  </si>
+  <si>
+    <t>QCOVID Prepped</t>
+  </si>
+  <si>
+    <t>ECOSS, NRS deaths</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived from daily linkage of ECOSS and NRS deaths within PHS. </t>
+  </si>
+  <si>
+    <t>ECOSS, RAPID</t>
+  </si>
+  <si>
+    <t>ECOSS, SICSAG</t>
+  </si>
+  <si>
+    <t>Townsend score</t>
+  </si>
+  <si>
+    <t>GP data, ECOSS, NRS Deaths, RAPID, SICSAG</t>
+  </si>
+  <si>
+    <t>QCOVID deduplicated</t>
+  </si>
+  <si>
+    <t>Sgene linked</t>
+  </si>
+  <si>
+    <t>GP data, HES (OPCS)</t>
+  </si>
+  <si>
+    <t>Radiotherapy Data Set (RTDS) or HES (OPCS)</t>
+  </si>
+  <si>
+    <t>GP data, ECOSS, HES, RTDS</t>
+  </si>
+  <si>
+    <t>Weekly to fortnightly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Covid death (defined as death within 28 days of +ve test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?check if also includes covid on death certificate  &gt;28 days</t>
+    </r>
+  </si>
+  <si>
+    <t>EAVE II data for new COVID-19 variant</t>
+  </si>
+  <si>
+    <t>Sgene_linked.rds</t>
+  </si>
+  <si>
+    <t>2020-12-30, 2021-01-05, 2021-01-14</t>
+  </si>
+  <si>
+    <t>ECOSSdeduped_linked.rds</t>
+  </si>
+  <si>
+    <t>2020-12-08, 2020-12-15, 2020-12-22, 2020-12-29, 2021-01-05, 2021-01-19</t>
+  </si>
+  <si>
+    <t>QCOVIDdeduped.rds</t>
+  </si>
+  <si>
+    <t>DATE_OF_DEATH</t>
+  </si>
+  <si>
+    <t>HID_lookup_MarSept2020.rds</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>Date_address_changed.x</t>
+  </si>
+  <si>
+    <t>Date_address_changed.y</t>
+  </si>
+  <si>
+    <t>ECOSSID digits</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>Flag for covid admission</t>
+  </si>
+  <si>
+    <t>0-14</t>
+  </si>
+  <si>
+    <t>0-28</t>
+  </si>
+  <si>
+    <t>Flag for new compared to last linkage of gene dropouts</t>
+  </si>
+  <si>
+    <t>Lab ID</t>
+  </si>
+  <si>
+    <t>0+</t>
+  </si>
+  <si>
+    <t>Days of ?</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Sub lab ID</t>
+  </si>
+  <si>
+    <t>Source lab ID</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>cohort_diags.rds</t>
+  </si>
+  <si>
+    <t>2020-09-11, 2020-09-15</t>
+  </si>
+  <si>
+    <t>SMR01 Charlson</t>
+  </si>
+  <si>
+    <t>Other SMR01 comorbidities</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>0-40</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Variable code name</t>
+  </si>
+  <si>
+    <t>Description on variable</t>
+  </si>
+  <si>
+    <t>Data source (either PHS dataset or EAVE II specific dataset)</t>
+  </si>
+  <si>
+    <t>Values variable lies in (NOTE: For binary variables, type = logic and values = 0,1)</t>
+  </si>
+  <si>
+    <t>Yes if variable is derived</t>
+  </si>
+  <si>
+    <t>Description on how variable was derived</t>
+  </si>
+  <si>
+    <t>Any extra comments</t>
+  </si>
+  <si>
+    <t>CURRENT_POSTCODE</t>
+  </si>
+  <si>
+    <t>GP data, ECOSS, RAPID, NRS deaths</t>
+  </si>
+  <si>
+    <t>ECOSS ID</t>
+  </si>
+  <si>
+    <t>Bespoke</t>
+  </si>
+  <si>
+    <t>See Supplementary Information - EAVEII_dd_gp_clusters.xlsx</t>
+  </si>
+  <si>
+    <t>From GRO deaths</t>
+  </si>
+  <si>
+    <t>From daily deaths feed</t>
+  </si>
+  <si>
+    <t>HPS case-control files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,6 +1602,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1445,7 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1460,12 +1658,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1475,6 +1671,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1755,11 +1959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A38C32A-5E9F-4246-A451-86235DCA479A}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1777,39 +1981,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>315</v>
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -1818,184 +2022,635 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>332</v>
+        <v>88</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>453</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>257</v>
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>317</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>318</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>330</v>
+        <v>95</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F6" s="12" t="s">
         <v>273</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>327</v>
+        <v>253</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>138</v>
+        <v>436</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F7" s="12" t="s">
         <v>273</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>331</v>
+        <v>422</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>273</v>
+        <v>471</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>336</v>
+        <v>423</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>469</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="12" t="s">
+    <row r="13" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>273</v>
+      <c r="F13" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{16C9A2BD-12DC-4373-A313-63CEF085966F}">
+      <formula1>"Cleaned, Derived, Bespoke, Lookup"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="96.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2005,11 +2660,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD1B286-1455-42F0-98E9-BF33C37523DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162236A5-30D0-411B-A197-7E00D1C5CBB0}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5"/>
+    <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="23.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{11E239BC-0ACA-431C-92E1-3A9200C8D856}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2040,16 +2859,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2066,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -2089,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -2112,7 +2931,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -2129,19 +2948,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
+      <c r="F5" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2149,22 +2968,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
+      <c r="F6" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2172,22 +2991,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2195,22 +3014,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2218,22 +3037,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2244,12 +3063,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD75A786-A60A-45C5-BDB0-7A9E27993732}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2277,16 +3096,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2303,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -2316,22 +3135,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>283</v>
+      <c r="F3" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2362,19 +3181,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://github.com/EAVE-II/EAVE-II-data-dictionary/blob/main/data_dictionary/supplementary/EAVEII_dd_gp_clusters.xlsx" xr:uid="{DF4697D5-C92D-46A0-A2D0-84946C1A17A4}"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://github.com/EAVE-II/EAVE-II-data-dictionary/blob/main/data_dictionary/supplementary/EAVEII_dd_gp_clusters.xlsx" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7B8464-7A11-4BB6-8E7F-A2B0F91C625E}">
-  <dimension ref="A1:I23"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2403,16 +3222,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2429,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
@@ -2442,22 +3261,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2473,20 +3292,20 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -2495,380 +3314,330 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>296</v>
+        <v>229</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>298</v>
+        <v>231</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>59</v>
+      <c r="B20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>377</v>
+        <v>290</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2877,12 +3646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABCE90-916C-4DB4-8740-25A9108485A8}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2911,16 +3680,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2928,19 +3697,19 @@
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F2" s="4">
         <v>2019</v>
@@ -2950,176 +3719,176 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>313</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3127,23 +3896,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10005EB8-7C17-415A-831D-DCA049AC9C5B}">
-  <dimension ref="A1:I19"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="18"/>
-    <col min="6" max="6" width="45.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="34.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="18"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3160,413 +3930,406 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>292</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>372</v>
+        <v>66</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>124</v>
+        <v>468</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>125</v>
+      <c r="A5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
+      <c r="I5" s="16" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>58</v>
+      <c r="A6" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+      <c r="I6" s="16" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>376</v>
+      <c r="E7" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
+      <c r="I7" s="16" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="E15" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="G15" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>131</v>
+      <c r="G17" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE98D1A-96EE-4C22-B038-E76A99DF5E1A}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="18"/>
+    <col min="1" max="1" width="22.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="16"/>
     <col min="7" max="8" width="23.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="18"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3583,233 +4346,234 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>378</v>
+      <c r="A3" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="G3" s="9"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>379</v>
+      <c r="A4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>449</v>
+      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="4"/>
+      <c r="I4" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>286</v>
+      <c r="A5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>382</v>
+        <v>293</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="18" t="s">
-        <v>139</v>
+      <c r="I5" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>287</v>
+      <c r="A6" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="18" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>288</v>
+      <c r="A7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="18" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>290</v>
+      <c r="A9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>299</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="18" t="s">
-        <v>140</v>
+      <c r="I9" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>291</v>
+      <c r="A10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>142</v>
+        <v>108</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="I10" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3817,24 +4581,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497F9B6-838A-4995-AB1F-759759587288}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="116.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18"/>
-    <col min="5" max="5" width="42.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
+    <col min="1" max="1" width="20.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="42.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16"/>
     <col min="7" max="8" width="23.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="18"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3851,903 +4615,907 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>219</v>
+      <c r="A2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>220</v>
+      <c r="D3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="18" t="s">
-        <v>221</v>
+      <c r="I3" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>222</v>
+      <c r="D4" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="18" t="s">
-        <v>223</v>
+      <c r="I4" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>224</v>
+      <c r="F5" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="18" t="s">
-        <v>225</v>
+      <c r="I5" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="A6" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>224</v>
+      <c r="F6" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="18" t="s">
-        <v>225</v>
+      <c r="I6" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="A7" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>224</v>
+      <c r="F7" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="18" t="s">
-        <v>226</v>
+      <c r="I7" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="A8" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>224</v>
+      <c r="F8" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="A9" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>224</v>
+      <c r="F9" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="D17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="I36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" s="18" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="F37" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="18" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="F39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="18" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="G42" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_dictionary/EAVEII_data_dictionary.xlsx
+++ b/data_dictionary/EAVEII_data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/rmulholl_ed_ac_uk/Documents/BREATHE/EAVE II/Data Dictionary/EAVE_II_data_dictionary/EAVE-II-data-dictionary/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE38BD1-B32E-407D-83DD-C871228D0D2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFE3BEB-76FE-49A5-97C3-61BA92A688DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="491">
   <si>
     <t>Name</t>
   </si>
@@ -1302,9 +1302,6 @@
     <t>Time (days) from +ve test to admission</t>
   </si>
   <si>
-    <t>Time (days) from +ve test to dearh</t>
-  </si>
-  <si>
     <t>Quintile of scottish index of multiple deprivation (from postcode of residence)</t>
   </si>
   <si>
@@ -1522,6 +1519,54 @@
   </si>
   <si>
     <t>HPS case-control files</t>
+  </si>
+  <si>
+    <t>Specimen Date</t>
+  </si>
+  <si>
+    <t>Sub Lab</t>
+  </si>
+  <si>
+    <t>COVID result</t>
+  </si>
+  <si>
+    <t>Date of NRS death record</t>
+  </si>
+  <si>
+    <t>Death within 28 days of positive test</t>
+  </si>
+  <si>
+    <t>SIMD Quintile 2020</t>
+  </si>
+  <si>
+    <t>Admission to hospital date</t>
+  </si>
+  <si>
+    <t>Discharge from hospital date</t>
+  </si>
+  <si>
+    <t>COVID admission</t>
+  </si>
+  <si>
+    <t>Time from positive test to admission</t>
+  </si>
+  <si>
+    <t>COVID death</t>
+  </si>
+  <si>
+    <t>Time from poistive test to death</t>
+  </si>
+  <si>
+    <t>Time (days) from +ve test to death</t>
+  </si>
+  <si>
+    <t>Days of…</t>
+  </si>
+  <si>
+    <t>True S Gene Dropout</t>
+  </si>
+  <si>
+    <t>New patient since last linkage</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2036,7 +2081,7 @@
         <v>246</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -2048,7 +2093,7 @@
         <v>200</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2059,7 +2104,7 @@
         <v>247</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
@@ -2068,10 +2113,10 @@
         <v>271</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2105,13 +2150,13 @@
         <v>252</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,7 +2167,7 @@
         <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>122</v>
@@ -2131,24 +2176,24 @@
         <v>273</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>255</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>65</v>
@@ -2156,30 +2201,30 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>264</v>
@@ -2190,7 +2235,7 @@
     </row>
     <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>263</v>
@@ -2210,7 +2255,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>273</v>
@@ -2230,7 +2275,7 @@
         <v>273</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -2263,104 +2308,117 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="96.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="25.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="96.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="23"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>384</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>71</v>
       </c>
@@ -2368,289 +2426,337 @@
         <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>385</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>386</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>387</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>388</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>389</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>390</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>391</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>443</v>
+      <c r="E15" s="18" t="s">
+        <v>417</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>392</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>444</v>
+      <c r="E17" s="18" t="s">
+        <v>417</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>447</v>
+      <c r="E18" s="18" t="s">
+        <v>417</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>395</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>396</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>416</v>
+      <c r="G20" s="16" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2710,29 +2816,29 @@
     </row>
     <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2960,7 +3066,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2983,7 +3089,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -3150,7 +3256,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3521,7 +3627,7 @@
         <v>203</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>227</v>
@@ -3541,7 +3647,7 @@
         <v>204</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>227</v>
@@ -3628,16 +3734,16 @@
         <v>228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>290</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +4007,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3991,7 +4097,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>92</v>
@@ -4003,7 +4109,7 @@
         <v>227</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>110</v>
@@ -4025,7 +4131,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>112</v>
@@ -4033,12 +4139,12 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>282</v>
@@ -4058,7 +4164,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4083,7 +4189,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4106,7 +4212,7 @@
         <v>290</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4123,16 +4229,16 @@
         <v>111</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>290</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4149,13 +4255,13 @@
         <v>111</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>290</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4218,7 +4324,7 @@
         <v>290</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4255,13 +4361,13 @@
         <v>113</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>114</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4298,13 +4404,13 @@
         <v>113</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4491,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>219</v>
@@ -4422,7 +4528,7 @@
         <v>122</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="4"/>
@@ -4457,7 +4563,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>220</v>
@@ -4519,7 +4625,7 @@
         <v>122</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="4"/>
@@ -5304,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>183</v>
@@ -5327,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>184</v>
@@ -5413,7 +5519,7 @@
         <v>111</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>177</v>
@@ -5459,10 +5565,10 @@
         <v>228</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5496,7 +5602,7 @@
         <v>301</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>227</v>
@@ -5508,7 +5614,7 @@
         <v>196</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>197</v>

--- a/data_dictionary/EAVEII_data_dictionary.xlsx
+++ b/data_dictionary/EAVEII_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/rmulholl_ed_ac_uk/Documents/BREATHE/EAVE II/Data Dictionary/EAVE_II_data_dictionary/EAVE-II-data-dictionary/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFE3BEB-76FE-49A5-97C3-61BA92A688DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="8_{4EFE3BEB-76FE-49A5-97C3-61BA92A688DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{659DC844-BFCD-447E-BEF4-BDF7A3C2944D}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <sheet name="Household identifier" sheetId="7" r:id="rId8"/>
     <sheet name="QCOVID deduplicated" sheetId="8" r:id="rId9"/>
     <sheet name="Sgene linked" sheetId="10" r:id="rId10"/>
+    <sheet name="Vaccinations" sheetId="12" r:id="rId11"/>
+    <sheet name="Adverse events (clotting)" sheetId="14" r:id="rId12"/>
+    <sheet name="Whole Genome Sequencing (WGS)" sheetId="15" r:id="rId13"/>
+    <sheet name="EAVE weights" sheetId="16" r:id="rId14"/>
+    <sheet name="Demographic endpoints" sheetId="18" r:id="rId15"/>
+    <sheet name="Previous tests" sheetId="19" r:id="rId16"/>
+    <sheet name="Previous positive tests" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'QCOVID deduplicated'!$A$1:$I$42</definedName>
@@ -70,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="681">
   <si>
     <t>Name</t>
   </si>
@@ -714,9 +721,6 @@
     <t>Specimen date</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>ICU admission</t>
   </si>
   <si>
@@ -855,33 +859,18 @@
     <t>EAVE II severe cases and outcomes</t>
   </si>
   <si>
-    <t>End points</t>
-  </si>
-  <si>
     <t>EAVE Weights</t>
   </si>
   <si>
     <t>Summary of all outcomes and baseline characteristics</t>
   </si>
   <si>
-    <t>Cohort_Demog_Endpoints_Dates</t>
-  </si>
-  <si>
     <t>Creates weights to align EAVE II population to NRS 2019 mid-year estimates</t>
   </si>
   <si>
     <t>CR_Cohort_Weights.rds</t>
   </si>
   <si>
-    <t>Comorbidities from the SMR01 dataset</t>
-  </si>
-  <si>
-    <t>SMR01_Charslon.rds</t>
-  </si>
-  <si>
-    <t>GP data, SMR01</t>
-  </si>
-  <si>
     <t>Derived variable</t>
   </si>
   <si>
@@ -1321,9 +1310,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Positive S Gene/True S Gene Dropout/Weak Positive/Unknown</t>
-  </si>
-  <si>
-    <t>QCOVID Prepped</t>
   </si>
   <si>
     <t>ECOSS, NRS deaths</t>
@@ -1458,12 +1444,6 @@
     <t>2020-09-11, 2020-09-15</t>
   </si>
   <si>
-    <t>SMR01 Charlson</t>
-  </si>
-  <si>
-    <t>Other SMR01 comorbidities</t>
-  </si>
-  <si>
     <t>0-5</t>
   </si>
   <si>
@@ -1567,13 +1547,610 @@
   </si>
   <si>
     <t>New patient since last linkage</t>
+  </si>
+  <si>
+    <t>IM (intramuscular)</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>RUA (right upper arm), LUA,  etc</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>batch numbers of vaccines</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>occurrence_time</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Date_of_birth</t>
+  </si>
+  <si>
+    <t>Date time</t>
+  </si>
+  <si>
+    <t>Date extract run</t>
+  </si>
+  <si>
+    <t>Date of extract</t>
+  </si>
+  <si>
+    <t>Run_Date</t>
+  </si>
+  <si>
+    <t>derived/assigned</t>
+  </si>
+  <si>
+    <t>Vaccinations</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccinations from GP system and Turas Vaccination Management Tool (TVMT)</t>
+  </si>
+  <si>
+    <t>C19vaccine.rds</t>
+  </si>
+  <si>
+    <t>GP data, Turas</t>
+  </si>
+  <si>
+    <t>date time</t>
+  </si>
+  <si>
+    <t>1 or  2 (a few 0, 3 or blank)</t>
+  </si>
+  <si>
+    <t>Postcode (if available)</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Date of vaccination</t>
+  </si>
+  <si>
+    <t>Vaccine type</t>
+  </si>
+  <si>
+    <t>Dose number</t>
+  </si>
+  <si>
+    <t>Injeciton site</t>
+  </si>
+  <si>
+    <t>Method of delivery</t>
+  </si>
+  <si>
+    <t>Batch number</t>
+  </si>
+  <si>
+    <t>AstraZenica, Pfizer, Moderna</t>
+  </si>
+  <si>
+    <t>ExtractDate</t>
+  </si>
+  <si>
+    <t>Date of data extraction</t>
+  </si>
+  <si>
+    <t>Practice_Number</t>
+  </si>
+  <si>
+    <t>GP practice number</t>
+  </si>
+  <si>
+    <t>Age at time of event</t>
+  </si>
+  <si>
+    <t>RegStatus</t>
+  </si>
+  <si>
+    <t>RegDate</t>
+  </si>
+  <si>
+    <t>IsDeducted</t>
+  </si>
+  <si>
+    <t>Whether deducted (deregistered)</t>
+  </si>
+  <si>
+    <t>DeductionDate</t>
+  </si>
+  <si>
+    <t>Date deregistered</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Event date</t>
+  </si>
+  <si>
+    <t>Quick_groups</t>
+  </si>
+  <si>
+    <t>Event type (each group icludes several read codes)</t>
+  </si>
+  <si>
+    <t>GP / derived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Arterial_thromb" , "cereb_haem" ,     "CVT"  , "dv_throm", "haem"  ,          "haem_gigu"       "haem_rb"    ,  "haem_sc" ,  "itp" ,    "itp_gen"   , "not relevant" , "pulm_emb"    ,    "pv_throm" ,    "sub_arach_haem"  "SVT"  , "th_haem"         "throm"         </t>
+  </si>
+  <si>
+    <t>For read codes included in groupings see code library : https://argoshare.is.ed.ac.uk/content/537/</t>
+  </si>
+  <si>
+    <t>Adverse events (clotting)</t>
+  </si>
+  <si>
+    <t>Registration status</t>
+  </si>
+  <si>
+    <t>Registration date</t>
+  </si>
+  <si>
+    <t>Registration deducted</t>
+  </si>
+  <si>
+    <t>Date registered at practice</t>
+  </si>
+  <si>
+    <t>Registration status at practice</t>
+  </si>
+  <si>
+    <t>Deduction date</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+  </si>
+  <si>
+    <t>Cluster groups</t>
+  </si>
+  <si>
+    <t>5 digit code</t>
+  </si>
+  <si>
+    <t>Registration code</t>
+  </si>
+  <si>
+    <t>UK postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabSpecimenNo  </t>
+  </si>
+  <si>
+    <t>Lab number - links to ECOSS to find CHI (and other info)</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query </t>
+  </si>
+  <si>
+    <t>Full Sequence ID using within analysis server to allow for duplicated sequence in case of quality issues</t>
+  </si>
+  <si>
+    <t>Sequence ID number</t>
+  </si>
+  <si>
+    <t>Date sample collected</t>
+  </si>
+  <si>
+    <t>Date sample sequenced</t>
+  </si>
+  <si>
+    <t>The date the sequence is first available to PHS for analysis (used for sample tracking and calculating turn around times)</t>
+  </si>
+  <si>
+    <t>County level based on patient's outer postcode</t>
+  </si>
+  <si>
+    <t>Healthboard as extracted from ECOSS. Typically based on residential postcode if present, otherwise, uses CHI seeding to determine heathboard.</t>
+  </si>
+  <si>
+    <t>whether VOC/VOI or not</t>
+  </si>
+  <si>
+    <t>seems incomplete? - better to use lineage</t>
+  </si>
+  <si>
+    <t>Based on the PHE VUI/VOC genomic definition, there are thresholds within number of mutation / deletions present within your sequence that match the profile. HR-LQG is high risk low quality.</t>
+  </si>
+  <si>
+    <t>Counts of reference bases (not mutations)</t>
+  </si>
+  <si>
+    <t>Counts of mutations (given that the mutation is an expected one within the VUI/VOC genomic profile)</t>
+  </si>
+  <si>
+    <t>Counts of bases that are not reference or expected mutations</t>
+  </si>
+  <si>
+    <t>Counts of bases which are ambiguous (typically due to low sequencing quality)</t>
+  </si>
+  <si>
+    <t>Refers to specific site mutations wt =  wild type, other letters are the mutation seen at this site. So L452R means that a site 452 you normally see the amino acid L, but the mutation of interest has an R in that site. Amb means ambiguous.</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>Lineage (if applicable) in format e.g.  B.1.1.7</t>
+  </si>
+  <si>
+    <t>Date lineages last defined/assigned (as lineage deifnintion can change over time)</t>
+  </si>
+  <si>
+    <t>Whole Genome Sequencing (WGS)</t>
+  </si>
+  <si>
+    <t>SequenceID</t>
+  </si>
+  <si>
+    <t>Collection_Date</t>
+  </si>
+  <si>
+    <t>Sequencing_Date</t>
+  </si>
+  <si>
+    <t>Alignment_Date</t>
+  </si>
+  <si>
+    <t>adm2</t>
+  </si>
+  <si>
+    <t>VariantofInterest</t>
+  </si>
+  <si>
+    <t>VariantShorthand</t>
+  </si>
+  <si>
+    <t>VariantCalling</t>
+  </si>
+  <si>
+    <t>ref_count</t>
+  </si>
+  <si>
+    <t>alt_count</t>
+  </si>
+  <si>
+    <t>other_count</t>
+  </si>
+  <si>
+    <t>Ambiguous</t>
+  </si>
+  <si>
+    <t>aa.S.L452R</t>
+  </si>
+  <si>
+    <t>aa.S.E484K</t>
+  </si>
+  <si>
+    <t>aa.S.G446V</t>
+  </si>
+  <si>
+    <t>Lineage</t>
+  </si>
+  <si>
+    <t>Lineage_version</t>
+  </si>
+  <si>
+    <t>Lab number</t>
+  </si>
+  <si>
+    <t>Full Sequence ID</t>
+  </si>
+  <si>
+    <t>Counts of mutations</t>
+  </si>
+  <si>
+    <t>Sequence ID Number</t>
+  </si>
+  <si>
+    <t>Collection date</t>
+  </si>
+  <si>
+    <t>Sequencing date</t>
+  </si>
+  <si>
+    <t>Alignment date</t>
+  </si>
+  <si>
+    <t>County of patient</t>
+  </si>
+  <si>
+    <t>Healthboard of patient</t>
+  </si>
+  <si>
+    <t>Variant of interest</t>
+  </si>
+  <si>
+    <t>Variance shorthand</t>
+  </si>
+  <si>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>Counts of reference bases</t>
+  </si>
+  <si>
+    <t>Other counts</t>
+  </si>
+  <si>
+    <t>Counts of ambiguous bases</t>
+  </si>
+  <si>
+    <t>Specific site mutation</t>
+  </si>
+  <si>
+    <t>Lineage version</t>
+  </si>
+  <si>
+    <t>AZ_safety</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine adverse events for clotting</t>
+  </si>
+  <si>
+    <t>COVID-19 genome sequencing</t>
+  </si>
+  <si>
+    <t>genomic_dataset</t>
+  </si>
+  <si>
+    <t>Derived lookup file</t>
+  </si>
+  <si>
+    <t>eave_weight</t>
+  </si>
+  <si>
+    <t>EAVE II weight</t>
+  </si>
+  <si>
+    <t>Weight assigned to individual person based on NRS mid-year estimates</t>
+  </si>
+  <si>
+    <t>derived</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Individuals with smaller values (~0) are associated with characteristics that are likely to have duplicates (e.g. younger population)</t>
+  </si>
+  <si>
+    <t>DataZone</t>
+  </si>
+  <si>
+    <t>Age as individual year</t>
+  </si>
+  <si>
+    <t>Scottish Index of Multiple Deprivation Quintile (2020)</t>
+  </si>
+  <si>
+    <t>1 - High, 2, 3, 4, 5 - Low</t>
+  </si>
+  <si>
+    <t>Postcode to SIMD quintile</t>
+  </si>
+  <si>
+    <t>Data Zone</t>
+  </si>
+  <si>
+    <t>Urban Rural Index (2016)</t>
+  </si>
+  <si>
+    <t>SIMD Quintile (2020)</t>
+  </si>
+  <si>
+    <t>Postcode to UR</t>
+  </si>
+  <si>
+    <t>Data zone codes</t>
+  </si>
+  <si>
+    <t>1 Large Urban Area, 2 Other Urban Areas, 3 Accessible Small Towns, 4 Remote Small Towns, 5 Accessible Rural, 6 Remote Rural</t>
+  </si>
+  <si>
+    <t>Speciment date</t>
+  </si>
+  <si>
+    <t>Date of COVID-19 test</t>
+  </si>
+  <si>
+    <t>If positive then date of test is first positive date, if negative then the date of test is most recent date</t>
+  </si>
+  <si>
+    <t>Test result</t>
+  </si>
+  <si>
+    <t>Result of COVID-19 test</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>0 - Negative, 1 - Positive</t>
+  </si>
+  <si>
+    <t>Death with 28 days of test</t>
+  </si>
+  <si>
+    <t>Indicator if individual died within 28 days of COVID-19 test</t>
+  </si>
+  <si>
+    <t>NRS.Reg.Date</t>
+  </si>
+  <si>
+    <t>death_covid</t>
+  </si>
+  <si>
+    <t>Date of death registered</t>
+  </si>
+  <si>
+    <t>COVID-19 case</t>
+  </si>
+  <si>
+    <t>Indicator if positive COVID case</t>
+  </si>
+  <si>
+    <t>Indicator if death was caused by COVID-19</t>
+  </si>
+  <si>
+    <t>COVID as any cause of death</t>
+  </si>
+  <si>
+    <t>NRS.Date.Death used more often</t>
+  </si>
+  <si>
+    <t>icu_death</t>
+  </si>
+  <si>
+    <t>Date of ICU death</t>
+  </si>
+  <si>
+    <t>date_icu_death</t>
+  </si>
+  <si>
+    <t>Died in ICU</t>
+  </si>
+  <si>
+    <t>Indicator if individual died in ICU</t>
+  </si>
+  <si>
+    <t>SICSAG, NRS deaths</t>
+  </si>
+  <si>
+    <t>hosp_covid</t>
+  </si>
+  <si>
+    <t>date_hosp_covid</t>
+  </si>
+  <si>
+    <t>days_to_death</t>
+  </si>
+  <si>
+    <t>Hospitalised with COVID</t>
+  </si>
+  <si>
+    <t>Date of COVID-19 hospital admission</t>
+  </si>
+  <si>
+    <t>Days from positive test to death</t>
+  </si>
+  <si>
+    <t>Indicator if individual was hospitalised with COVID-19</t>
+  </si>
+  <si>
+    <t>Date of hospital admission for COVID-19</t>
+  </si>
+  <si>
+    <t>NHS Scotland health board</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>NHS facility of test</t>
+  </si>
+  <si>
+    <t>Location where COVID test took place (NHS Facility)</t>
+  </si>
+  <si>
+    <t>Test result (formal)</t>
+  </si>
+  <si>
+    <t>Result of COVID-19 test (formal)</t>
+  </si>
+  <si>
+    <t>Coronavirus 2019-nCoV,Coronavirus 2019-nCoV negative</t>
+  </si>
+  <si>
+    <t>Location where sample processed (lab code)</t>
+  </si>
+  <si>
+    <t>Demographic endpoints</t>
+  </si>
+  <si>
+    <t>Cohort_Demog_Endpoints_Dates.rds or Cohort_Demog_Endpoints_Times.rds</t>
+  </si>
+  <si>
+    <t>GP data, ECOSS, RAPID, NRS deaths, SICSAG</t>
+  </si>
+  <si>
+    <t>Tests.rds</t>
+  </si>
+  <si>
+    <t>Previous tests</t>
+  </si>
+  <si>
+    <t>Previous positive tests</t>
+  </si>
+  <si>
+    <t>Positive_Tests.rds</t>
+  </si>
+  <si>
+    <t>Individuals with a positive COVID-19 test</t>
+  </si>
+  <si>
+    <t>Individuals tested for COVID-19 with a summary of their results</t>
+  </si>
+  <si>
+    <t>n_tests</t>
+  </si>
+  <si>
+    <t>n_pos</t>
+  </si>
+  <si>
+    <t>n_neg</t>
+  </si>
+  <si>
+    <t>Number of COVID tests</t>
+  </si>
+  <si>
+    <t>Number of positive COVID tests</t>
+  </si>
+  <si>
+    <t>Number of negative COVID tests</t>
+  </si>
+  <si>
+    <t>specimen_date</t>
+  </si>
+  <si>
+    <t>Date of positive COVID-19 test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,12 +2177,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1648,20 +2219,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,6 +2241,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,9 +2268,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1703,27 +2285,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2005,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2026,39 +2616,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>245</v>
+      <c r="B2" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -2067,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>200</v>
@@ -2077,54 +2667,54 @@
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>452</v>
+      <c r="B3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>247</v>
+      <c r="B4" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>426</v>
+        <v>265</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>248</v>
+      <c r="B5" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>86</v>
@@ -2133,9 +2723,9 @@
         <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2143,156 +2733,223 @@
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>420</v>
+      <c r="B6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>426</v>
+        <v>267</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D7" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>436</v>
+        <v>267</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>425</v>
+        <v>414</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F8" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>468</v>
+      <c r="D9" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>426</v>
+        <v>461</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>210</v>
+      <c r="F12" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2310,20 +2967,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="25.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="96.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="25.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="96.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2340,33 +2997,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -2375,388 +3032,388 @@
         <v>9</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F11" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C8" s="16" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="D19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>415</v>
+      <c r="F20" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2765,12 +3422,966 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162236A5-30D0-411B-A197-7E00D1C5CBB0}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A8CAAC-7C25-43A8-B1F0-B3C02670E402}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC82308-90E4-491B-9F3C-1E7342AE6AD9}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="H12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500C3F60-08CF-4606-AEAE-A65DC69EF059}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="9" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" t="s">
+        <v>599</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>601</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>582</v>
+      </c>
+      <c r="B19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C21" t="s">
+        <v>566</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C22" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E64C2800-3BE2-4BE4-A087-CF96C48C12CF}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64117703-2471-4114-8AB4-44EF05808BF8}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2799,46 +4410,1157 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{9CC4E786-E75C-4886-9D86-003CFB5536F9}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13994FC9-1B50-4B49-812A-D7B91EF46CAE}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5"/>
+    <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="23.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{8B90B124-F120-4638-A3E2-33D818B4FD57}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93DCC48-700D-4612-9125-FFBAD9661129}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5"/>
+    <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="23.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{C64166F1-60B4-4D15-AEF1-56BE4992626B}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9796E142-A3B3-4712-8086-C2D8ED247CF2}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5"/>
+    <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="23.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{A95EAC07-4DD6-420C-B44F-253705AB40C7}">
+      <formula1>"character, date, integer, logic, numeric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162236A5-30D0-411B-A197-7E00D1C5CBB0}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5"/>
+    <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="23.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +5591,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2880,7 +5602,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2965,16 +5687,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2991,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -3014,7 +5736,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -3037,7 +5759,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -3054,19 +5776,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>440</v>
+      <c r="F5" s="22" t="s">
+        <v>433</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -3080,16 +5802,16 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>451</v>
+      <c r="F6" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -3103,10 +5825,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -3126,10 +5848,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
@@ -3149,10 +5871,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
@@ -3173,8 +5895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3202,16 +5924,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -3228,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -3241,22 +5963,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>471</v>
+      <c r="F3" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3328,16 +6050,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -3354,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>66</v>
@@ -3376,7 +6098,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>66</v>
@@ -3398,7 +6120,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>66</v>
@@ -3420,7 +6142,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>66</v>
@@ -3442,7 +6164,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>66</v>
@@ -3464,7 +6186,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>66</v>
@@ -3486,7 +6208,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>66</v>
@@ -3499,13 +6221,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>108</v>
@@ -3530,7 +6252,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -3550,7 +6272,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
@@ -3570,13 +6292,13 @@
         <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3590,7 +6312,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
@@ -3601,13 +6323,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>108</v>
@@ -3623,14 +6345,14 @@
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>66</v>
@@ -3643,14 +6365,14 @@
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
@@ -3670,7 +6392,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -3682,7 +6404,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>206</v>
@@ -3702,7 +6424,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>207</v>
@@ -3724,26 +6446,26 @@
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>339</v>
+      <c r="C20" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3786,16 +6508,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -3806,16 +6528,16 @@
         <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="4">
         <v>2019</v>
@@ -3828,16 +6550,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>80</v>
@@ -3850,16 +6572,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3872,16 +6594,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>80</v>
@@ -3894,16 +6616,16 @@
         <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>81</v>
@@ -3915,17 +6637,17 @@
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>82</v>
@@ -3937,17 +6659,17 @@
       <c r="A8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>243</v>
+      <c r="B8" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>83</v>
@@ -3959,17 +6681,17 @@
       <c r="A9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>84</v>
@@ -3981,17 +6703,17 @@
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>244</v>
+      <c r="B10" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>85</v>
@@ -4012,14 +6734,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="34.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15"/>
+    <col min="5" max="5" width="34.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4036,385 +6758,385 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="16" t="s">
-        <v>472</v>
+      <c r="I5" s="15" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="16" t="s">
-        <v>472</v>
+      <c r="I6" s="15" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>290</v>
+      <c r="E7" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="16" t="s">
-        <v>472</v>
+      <c r="I7" s="15" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="F11" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="E12" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="E13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="G13" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="C14" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4430,12 +7152,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="16"/>
+    <col min="1" max="1" width="22.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="15"/>
     <col min="7" max="8" width="23.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4452,233 +7174,233 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="A3" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>235</v>
+      <c r="F3" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>448</v>
+      <c r="F4" s="17" t="s">
+        <v>441</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>235</v>
+      <c r="F6" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>108</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>448</v>
+      <c r="F8" s="17" t="s">
+        <v>441</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>299</v>
+      <c r="F9" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="19"/>
+      <c r="I10" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4697,14 +7419,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="116.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="42.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16"/>
+    <col min="1" max="1" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15"/>
+    <col min="5" max="5" width="42.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15"/>
     <col min="7" max="8" width="23.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4721,902 +7443,902 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>173</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>175</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B31" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C37" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="E37" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="16" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="I38" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="E39" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="I39" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="B42" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>196</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I42" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>197</v>
       </c>
     </row>
